--- a/biology/Botanique/Ribes_petraeum/Ribes_petraeum.xlsx
+++ b/biology/Botanique/Ribes_petraeum/Ribes_petraeum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Groseillier des rochers, Groseillier des rocailles, Groseillier des pierriers
 Le Groseillier des rochers, Groseillier des rocailles ou Groseillier des pierriers (Ribes petraeum) est une espèce de sous-arbrisseaux de la famille des Grossulariacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste de 1,5 m à 2,5 m de haut à grandes feuilles (limbe jusqu'à 15 cm de long et de large, formé de 3 à 5 lobes anguleux à dents pointues). Les fleurs sont rougeâtres en grappes pendantes de 20 à 35 unités. Les fruits sont de couleur rouge sombre.
 </t>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Groseillier des rochers fréquente les bois, les bords des ruisseaux et les rochers des montagnes d'Europe occidentale et centrale (Alpes, Forêt-Noire, Vosges, Jura, Massif central, Pyrénées). Il préfère les sols siliceux, sa valeur écologique de Landolt est M.324-322-n[1]. Dans les Alpes, on le trouve de 500 m à 2 500 m d'altitude.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Groseillier des rochers fréquente les bois, les bords des ruisseaux et les rochers des montagnes d'Europe occidentale et centrale (Alpes, Forêt-Noire, Vosges, Jura, Massif central, Pyrénées). Il préfère les sols siliceux, sa valeur écologique de Landolt est M.324-322-n. Dans les Alpes, on le trouve de 500 m à 2 500 m d'altitude.
 </t>
         </is>
       </c>
